--- a/prix/laiton.xlsx
+++ b/prix/laiton.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40087D9B-93CB-4F11-8C83-2A2CFBDE6947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7285FE27-258F-4AFB-83D0-2FACD4D97977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="324">
   <si>
     <t>43107601</t>
   </si>
@@ -834,6 +834,180 @@
   </si>
   <si>
     <t>laiton/allonge.png</t>
+  </si>
+  <si>
+    <t>denomination</t>
+  </si>
+  <si>
+    <t>1/8</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>3/8</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>5/4</t>
+  </si>
+  <si>
+    <t>6/4</t>
+  </si>
+  <si>
+    <t>1/4-1/8</t>
+  </si>
+  <si>
+    <t>3/8-1/4</t>
+  </si>
+  <si>
+    <t>3/8-1/8</t>
+  </si>
+  <si>
+    <t>1/2-3/8</t>
+  </si>
+  <si>
+    <t>3/4-1/2</t>
+  </si>
+  <si>
+    <t>4/4-3/4</t>
+  </si>
+  <si>
+    <t>5/4-4/4</t>
+  </si>
+  <si>
+    <t>6/4-5/4</t>
+  </si>
+  <si>
+    <t>5/4-3/4</t>
+  </si>
+  <si>
+    <t>3/8M-1/4F</t>
+  </si>
+  <si>
+    <t>1/2M-3/8F</t>
+  </si>
+  <si>
+    <t>3/4M-1/2F</t>
+  </si>
+  <si>
+    <t>4/4M-3/4F</t>
+  </si>
+  <si>
+    <t>5/4M-4/4F</t>
+  </si>
+  <si>
+    <t>6/4M-5/4F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/4 </t>
+  </si>
+  <si>
+    <t>15-1/2-15</t>
+  </si>
+  <si>
+    <t>1/2-10</t>
+  </si>
+  <si>
+    <t>1/2-20</t>
+  </si>
+  <si>
+    <t>1/2-30</t>
+  </si>
+  <si>
+    <t>1/2-50</t>
+  </si>
+  <si>
+    <t>1/2-100</t>
+  </si>
+  <si>
+    <t>3/4-15</t>
+  </si>
+  <si>
+    <t>3/4-20</t>
+  </si>
+  <si>
+    <t>3/4-30</t>
+  </si>
+  <si>
+    <t>3/4-50</t>
+  </si>
+  <si>
+    <t>3/4-100</t>
+  </si>
+  <si>
+    <t>3/4-22</t>
+  </si>
+  <si>
+    <t>1/2-12</t>
+  </si>
+  <si>
+    <t>1/2-15</t>
+  </si>
+  <si>
+    <t>1/4M-1/8F</t>
+  </si>
+  <si>
+    <t>1/4F-1M</t>
+  </si>
+  <si>
+    <t>1/2F-1M</t>
+  </si>
+  <si>
+    <t>3/8M-1/8F</t>
+  </si>
+  <si>
+    <t>3/4-10</t>
+  </si>
+  <si>
+    <t>1/2-2</t>
+  </si>
+  <si>
+    <t>3/8F-1M</t>
+  </si>
+  <si>
+    <t>1/2F-3M</t>
+  </si>
+  <si>
+    <t>3/4F-1M</t>
+  </si>
+  <si>
+    <t>4/4F-1M</t>
+  </si>
+  <si>
+    <t>4/4F-3M</t>
+  </si>
+  <si>
+    <t>5/4F-4M</t>
+  </si>
+  <si>
+    <t>6/4F-5M</t>
+  </si>
+  <si>
+    <t>4/4M-1/2F</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1/2-3/8</t>
+  </si>
+  <si>
+    <t>4/4-1/2</t>
+  </si>
+  <si>
+    <t>6/4-4/4</t>
+  </si>
+  <si>
+    <t>1/2-1/2</t>
+  </si>
+  <si>
+    <t>1/2-1/2-1EF</t>
   </si>
 </sst>
 </file>
@@ -1236,41 +1410,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16140EE4-62C9-4627-8E75-6BE0566E4DDE}">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="51.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.77734375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="21.77734375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="26.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.77734375" style="2" customWidth="1"/>
+    <col min="12" max="13" width="21.77734375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>250</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1279,1706 +1456,2079 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="8">
         <v>0.85</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="8">
         <v>1.43</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="8">
         <v>1.5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="8">
         <v>1.02</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="8">
         <v>0.85</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="8">
         <v>1.73</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="8">
         <v>2.93</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="8">
         <v>5.7</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="8">
         <v>0.68</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="8">
         <v>0.98</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="8">
         <v>0.88</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="8">
         <v>0.95000000000000007</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="8">
         <v>1.78</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="8">
         <v>2.88</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="8">
         <v>3.88</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="8">
         <v>4.88</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="8">
         <v>6.01</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="8">
         <v>5.48</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="8">
         <v>7.16</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="8">
         <v>11.53</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" s="8">
         <v>19.04</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="8">
         <v>28.51</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="8">
         <v>4.26</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="8">
         <v>7.26</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="8">
         <v>12.35</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" s="8">
         <v>22.39</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D28" s="8">
         <v>44.53</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" s="8">
         <v>44.53</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="8">
         <v>8.7799999999999994</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="8">
         <v>13.33</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="8">
         <v>2.36</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" s="8">
         <v>1.69</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="8">
         <v>2.57</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D35" s="8">
         <v>3.33</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" s="8">
         <v>6.21</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D37" s="8">
         <v>12.83</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D38" s="8">
         <v>14.58</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>259</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="8">
         <v>8.35</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>259</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="8">
         <v>5.08</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D41" s="8">
         <v>0.75</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D42" s="8">
         <v>1.6400000000000001</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="8">
         <v>0.88</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" s="8">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D45" s="8">
         <v>1.3</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" s="8">
         <v>2.44</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D47" s="8">
         <v>5.36</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" s="8">
         <v>5.32</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D49" s="8">
         <v>0.92</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" s="8">
         <v>1.34</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="E50" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" s="8">
         <v>1.6400000000000001</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D52" s="8">
         <v>1.52</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D53" s="8">
         <v>1.6</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" s="8">
         <v>2.12</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="E54" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D55" s="8">
         <v>4.68</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D56" s="8">
         <v>5.8</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D57" s="8">
         <v>4.5</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="E57" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7"/>
+      <c r="D58" s="8">
         <v>0</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="E58" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" s="8">
         <v>0.54</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="E59" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D60" s="8">
         <v>0.54</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D61" s="8">
         <v>0.52</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="E61" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D62" s="8">
         <v>1.08</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="E62" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D63" s="8">
         <v>1</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="E63" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D64" s="8">
         <v>2.02</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="E64" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D65" s="8">
         <v>1.76</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="E65" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D66" s="8">
         <v>3.4</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="E66" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D67" s="8">
         <v>4.12</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="7"/>
+      <c r="D68" s="8">
         <v>0</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="E68" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D69" s="8">
         <v>3.4</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D70" s="8">
         <v>3.38</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D71" s="8">
         <v>3.18</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="E71" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D72" s="8">
         <v>3.1</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="E72" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D73" s="8">
         <v>0.9</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="E73" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D74" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D75" s="8">
         <v>4.0200000000000005</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="E75" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D76" s="8">
         <v>2.02</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="E76" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D77" s="8">
         <v>4.3899999999999997</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="E77" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D78" s="8">
         <v>5.3500000000000005</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="E78" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D79" s="8">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="E79" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D80" s="8">
         <v>3.6</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="E80" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D81" s="8">
         <v>1.9100000000000001</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="E81" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D82" s="8">
         <v>2.16</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="E82" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D83" s="8">
         <v>2.56</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="E83" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D84" s="8">
         <v>5.36</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="E84" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D85" s="8">
         <v>4.25</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="E85" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D86" s="8">
         <v>12.66</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="E86" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D87" s="8">
         <v>12.66</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="E87" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="7"/>
+      <c r="D88" s="8">
         <v>0</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="E88" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="8">
         <v>0.84</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="E89" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="8">
         <v>1.6400000000000001</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="E90" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D91" s="8">
         <v>0.87</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="E91" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D92" s="8">
         <v>1.2</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="E92" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D93" s="8">
         <v>1.51</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="E93" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" s="8">
         <v>2.86</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="E94" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D95" s="8">
         <v>5.21</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="E95" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D96" s="8">
         <v>6.71</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="E96" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D97" s="8">
         <v>3.29</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="E97" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D98" s="8">
         <v>4.78</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="E98" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D99" s="8">
         <v>1.22</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="E99" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D100" s="8">
         <v>2.0300000000000002</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="E100" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D101" s="8">
         <v>2.65</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="E101" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D102" s="8">
         <v>5.47</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="E102" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D103" s="8">
         <v>11.59</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="E103" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D104" s="8">
         <v>14</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="E104" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D105" s="8">
         <v>1.22</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="E105" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D106" s="8">
         <v>1.57</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="E106" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" s="8">
         <v>2.92</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="E107" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D108" s="8">
         <v>4.5200000000000005</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="E108" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D109" s="8">
         <v>10.67</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="E109" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D110" s="8">
         <v>12.96</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="E110" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D111" s="8">
         <v>5.15</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="E111" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E111" s="2"/>
       <c r="F111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="3"/>
-      <c r="J111"/>
+      <c r="G111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="3"/>
       <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N111"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D112" s="8">
         <v>6.2</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="E112" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E112" s="2"/>
       <c r="F112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="3"/>
-      <c r="J112"/>
+      <c r="G112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="3"/>
       <c r="K112"/>
       <c r="L112"/>
       <c r="M112"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="N112"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D113" s="8">
         <v>4.76</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="E113" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B114" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D114" s="8">
         <v>4.76</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="E114" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D115" s="8">
         <v>8.4700000000000006</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="E115" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D116" s="8">
         <v>5.79</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="E116" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D117" s="8">
         <v>12.88</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="E117" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>265</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D118" s="8">
         <v>1.33</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="E118" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>265</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C119" s="8">
+      <c r="C119" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D119" s="8">
         <v>1.94</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="E119" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>265</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D120" s="8">
         <v>2.57</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="E120" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>265</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C121" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D121" s="8">
         <v>4.32</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="E121" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>265</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D122" s="8">
         <v>7.2</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="E122" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>265</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C123" s="8">
+      <c r="C123" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D123" s="8">
         <v>2</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="E123" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>265</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C124" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D124" s="8">
         <v>2.94</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="E124" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>265</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C125" s="8">
+      <c r="C125" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D125" s="8">
         <v>3</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="E125" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>265</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C126" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D126" s="8">
         <v>5.7</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="E126" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>265</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C127" s="8">
+      <c r="C127" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D127" s="8">
         <v>8.4499999999999993</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="E127" s="7" t="s">
         <v>248</v>
       </c>
     </row>

--- a/prix/laiton.xlsx
+++ b/prix/laiton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7285FE27-258F-4AFB-83D0-2FACD4D97977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775C52AD-869F-468E-9BF6-D1393D928E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
   </bookViews>
@@ -1052,7 +1052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1075,6 +1075,12 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1413,14 +1419,14 @@
   <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C127"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
@@ -1439,7 +1445,7 @@
       <c r="B1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>251</v>
       </c>
       <c r="D1" s="5" t="s">

--- a/prix/laiton.xlsx
+++ b/prix/laiton.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E02D73-BA62-43D9-B494-986ED6700B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1942089-1578-43F3-8A89-1D5C9C974069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1044,12 +1044,36 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1064,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1093,6 +1117,33 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1428,11 +1479,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16140EE4-62C9-4627-8E75-6BE0566E4DDE}">
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1466,7 +1515,7 @@
       <c r="E1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1487,11 +1536,12 @@
         <v>267</v>
       </c>
       <c r="D2" s="8">
-        <v>0.85</v>
-      </c>
-      <c r="E2" s="7" t="s">
+        <v>1.03</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1504,11 +1554,12 @@
         <v>268</v>
       </c>
       <c r="D3" s="8">
-        <v>1.43</v>
-      </c>
-      <c r="E3" s="7" t="s">
+        <v>1.73</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -1521,11 +1572,12 @@
         <v>269</v>
       </c>
       <c r="D4" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="E4" s="7" t="s">
+        <v>1.82</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -1538,11 +1590,12 @@
         <v>270</v>
       </c>
       <c r="D5" s="8">
-        <v>1.02</v>
-      </c>
-      <c r="E5" s="7" t="s">
+        <v>1.23</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -1555,11 +1608,12 @@
         <v>271</v>
       </c>
       <c r="D6" s="8">
-        <v>0.85</v>
-      </c>
-      <c r="E6" s="7" t="s">
+        <v>1.03</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -1572,11 +1626,12 @@
         <v>272</v>
       </c>
       <c r="D7" s="8">
-        <v>1.73</v>
-      </c>
-      <c r="E7" s="7" t="s">
+        <v>2.09</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1589,11 +1644,12 @@
         <v>273</v>
       </c>
       <c r="D8" s="8">
-        <v>2.93</v>
-      </c>
-      <c r="E8" s="7" t="s">
+        <v>3.5500000000000003</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1606,11 +1662,12 @@
         <v>274</v>
       </c>
       <c r="D9" s="8">
-        <v>5.7</v>
-      </c>
-      <c r="E9" s="7" t="s">
+        <v>6.9</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1623,11 +1680,12 @@
         <v>267</v>
       </c>
       <c r="D10" s="8">
-        <v>0.68</v>
-      </c>
-      <c r="E10" s="7" t="s">
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -1640,11 +1698,12 @@
         <v>268</v>
       </c>
       <c r="D11" s="8">
-        <v>0.98</v>
-      </c>
-      <c r="E11" s="7" t="s">
+        <v>1.19</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -1657,11 +1716,12 @@
         <v>269</v>
       </c>
       <c r="D12" s="8">
-        <v>0.88</v>
-      </c>
-      <c r="E12" s="7" t="s">
+        <v>1.06</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -1674,11 +1734,12 @@
         <v>270</v>
       </c>
       <c r="D13" s="8">
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="E13" s="7" t="s">
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1691,11 +1752,12 @@
         <v>271</v>
       </c>
       <c r="D14" s="8">
-        <v>1.78</v>
-      </c>
-      <c r="E14" s="7" t="s">
+        <v>2.15</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -1708,11 +1770,12 @@
         <v>272</v>
       </c>
       <c r="D15" s="8">
-        <v>2.88</v>
-      </c>
-      <c r="E15" s="7" t="s">
+        <v>3.48</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -1725,13 +1788,14 @@
         <v>273</v>
       </c>
       <c r="D16" s="8">
-        <v>3.88</v>
-      </c>
-      <c r="E16" s="7" t="s">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>324</v>
       </c>
@@ -1742,13 +1806,14 @@
         <v>274</v>
       </c>
       <c r="D17" s="8">
-        <v>4.88</v>
-      </c>
-      <c r="E17" s="7" t="s">
+        <v>5.9</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>255</v>
       </c>
@@ -1758,14 +1823,15 @@
       <c r="C18" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D18" s="8">
-        <v>6.01</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="15">
+        <v>7.2700000000000005</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>255</v>
       </c>
@@ -1775,14 +1841,15 @@
       <c r="C19" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D19" s="8">
-        <v>5.48</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="15">
+        <v>6.63</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>255</v>
       </c>
@@ -1792,14 +1859,15 @@
       <c r="C20" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D20" s="8">
-        <v>7.16</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="15">
+        <v>8.66</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>255</v>
       </c>
@@ -1809,14 +1877,15 @@
       <c r="C21" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="8">
-        <v>11.53</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="15">
+        <v>13.950000000000001</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>255</v>
       </c>
@@ -1826,14 +1895,15 @@
       <c r="C22" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D22" s="8">
-        <v>19.04</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="15">
+        <v>23.04</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>255</v>
       </c>
@@ -1843,14 +1913,15 @@
       <c r="C23" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D23" s="8">
-        <v>28.51</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="15">
+        <v>34.5</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>327</v>
       </c>
@@ -1860,14 +1931,15 @@
       <c r="C24" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="8">
-        <v>4.26</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="15">
+        <v>5.15</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>327</v>
       </c>
@@ -1877,14 +1949,15 @@
       <c r="C25" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="8">
-        <v>7.26</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="15">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>327</v>
       </c>
@@ -1894,14 +1967,15 @@
       <c r="C26" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D26" s="8">
-        <v>12.35</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="15">
+        <v>14.94</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>327</v>
       </c>
@@ -1911,14 +1985,15 @@
       <c r="C27" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D27" s="8">
-        <v>22.39</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="15">
+        <v>27.09</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>327</v>
       </c>
@@ -1928,14 +2003,15 @@
       <c r="C28" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D28" s="8">
-        <v>44.53</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="15">
+        <v>53.88</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>327</v>
       </c>
@@ -1945,14 +2021,15 @@
       <c r="C29" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D29" s="8">
-        <v>44.53</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="15">
+        <v>53.88</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>257</v>
       </c>
@@ -1962,14 +2039,15 @@
       <c r="C30" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D30" s="8">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="15">
+        <v>10.620000000000001</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>257</v>
       </c>
@@ -1979,14 +2057,15 @@
       <c r="C31" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D31" s="8">
-        <v>13.33</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="D31" s="15">
+        <v>16.13</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>258</v>
       </c>
@@ -1996,14 +2075,15 @@
       <c r="C32" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D32" s="8">
-        <v>2.36</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="15">
+        <v>2.86</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>258</v>
       </c>
@@ -2013,14 +2093,15 @@
       <c r="C33" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D33" s="8">
-        <v>1.69</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="15">
+        <v>2.04</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>258</v>
       </c>
@@ -2030,14 +2111,15 @@
       <c r="C34" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D34" s="8">
-        <v>2.57</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="D34" s="15">
+        <v>3.11</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>258</v>
       </c>
@@ -2047,14 +2129,15 @@
       <c r="C35" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D35" s="8">
-        <v>3.33</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="D35" s="15">
+        <v>4.03</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>258</v>
       </c>
@@ -2064,14 +2147,15 @@
       <c r="C36" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D36" s="8">
-        <v>6.21</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="15">
+        <v>7.51</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>258</v>
       </c>
@@ -2081,14 +2165,15 @@
       <c r="C37" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D37" s="8">
-        <v>12.83</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="15">
+        <v>15.52</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>258</v>
       </c>
@@ -2098,14 +2183,15 @@
       <c r="C38" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D38" s="8">
-        <v>14.58</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="D38" s="15">
+        <v>17.64</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>259</v>
       </c>
@@ -2115,14 +2201,15 @@
       <c r="C39" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D39" s="8">
-        <v>8.35</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="15">
+        <v>10.1</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>259</v>
       </c>
@@ -2132,14 +2219,15 @@
       <c r="C40" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D40" s="8">
-        <v>5.08</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="D40" s="15">
+        <v>6.15</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>260</v>
       </c>
@@ -2149,14 +2237,15 @@
       <c r="C41" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D41" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="15">
+        <v>0.91</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>260</v>
       </c>
@@ -2166,14 +2255,15 @@
       <c r="C42" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D42" s="8">
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="D42" s="15">
+        <v>1.98</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>260</v>
       </c>
@@ -2183,14 +2273,15 @@
       <c r="C43" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D43" s="8">
-        <v>0.88</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="D43" s="15">
+        <v>1.06</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>260</v>
       </c>
@@ -2200,14 +2291,15 @@
       <c r="C44" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D44" s="8">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="D44" s="15">
+        <v>1.36</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>260</v>
       </c>
@@ -2217,14 +2309,15 @@
       <c r="C45" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D45" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="15">
+        <v>1.57</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>260</v>
       </c>
@@ -2234,14 +2327,15 @@
       <c r="C46" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D46" s="8">
-        <v>2.44</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="D46" s="15">
+        <v>2.95</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>260</v>
       </c>
@@ -2251,14 +2345,15 @@
       <c r="C47" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D47" s="8">
-        <v>5.36</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="D47" s="15">
+        <v>6.49</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>260</v>
       </c>
@@ -2268,14 +2363,15 @@
       <c r="C48" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D48" s="8">
-        <v>5.32</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="D48" s="15">
+        <v>6.44</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>261</v>
       </c>
@@ -2285,14 +2381,15 @@
       <c r="C49" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D49" s="8">
-        <v>0.92</v>
-      </c>
-      <c r="E49" s="7" t="s">
+      <c r="D49" s="15">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>261</v>
       </c>
@@ -2302,14 +2399,15 @@
       <c r="C50" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D50" s="8">
-        <v>1.34</v>
-      </c>
-      <c r="E50" s="7" t="s">
+      <c r="D50" s="15">
+        <v>1.62</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>261</v>
       </c>
@@ -2319,14 +2417,15 @@
       <c r="C51" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D51" s="8">
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="E51" s="7" t="s">
+      <c r="D51" s="15">
+        <v>1.98</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>261</v>
       </c>
@@ -2336,14 +2435,15 @@
       <c r="C52" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D52" s="8">
-        <v>1.52</v>
-      </c>
-      <c r="E52" s="7" t="s">
+      <c r="D52" s="15">
+        <v>1.84</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="14"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>261</v>
       </c>
@@ -2353,14 +2453,15 @@
       <c r="C53" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D53" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="E53" s="7" t="s">
+      <c r="D53" s="15">
+        <v>1.94</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="14"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>261</v>
       </c>
@@ -2370,14 +2471,15 @@
       <c r="C54" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D54" s="8">
-        <v>2.12</v>
-      </c>
-      <c r="E54" s="7" t="s">
+      <c r="D54" s="15">
+        <v>2.57</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="14"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>261</v>
       </c>
@@ -2387,14 +2489,15 @@
       <c r="C55" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="8">
-        <v>4.68</v>
-      </c>
-      <c r="E55" s="7" t="s">
+      <c r="D55" s="15">
+        <v>5.66</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="14"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>261</v>
       </c>
@@ -2404,14 +2507,15 @@
       <c r="C56" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D56" s="8">
-        <v>5.8</v>
-      </c>
-      <c r="E56" s="7" t="s">
+      <c r="D56" s="15">
+        <v>7.0200000000000005</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="14"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>261</v>
       </c>
@@ -2421,26 +2525,28 @@
       <c r="C57" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D57" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="E57" s="7" t="s">
+      <c r="D57" s="15">
+        <v>5.45</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C58" s="7"/>
-      <c r="D58" s="8">
+      <c r="D58" s="15">
         <v>0</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="14"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>262</v>
       </c>
@@ -2450,14 +2556,15 @@
       <c r="C59" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D59" s="8">
-        <v>0.54</v>
-      </c>
-      <c r="E59" s="7" t="s">
+      <c r="D59" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="E59" s="12" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="14"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>262</v>
       </c>
@@ -2467,14 +2574,15 @@
       <c r="C60" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D60" s="8">
-        <v>0.54</v>
-      </c>
-      <c r="E60" s="7" t="s">
+      <c r="D60" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="E60" s="12" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>262</v>
       </c>
@@ -2484,14 +2592,15 @@
       <c r="C61" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D61" s="8">
-        <v>0.52</v>
-      </c>
-      <c r="E61" s="7" t="s">
+      <c r="D61" s="15">
+        <v>0.63</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="14"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>262</v>
       </c>
@@ -2501,14 +2610,15 @@
       <c r="C62" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D62" s="8">
-        <v>1.08</v>
-      </c>
-      <c r="E62" s="7" t="s">
+      <c r="D62" s="15">
+        <v>1.31</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="14"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>262</v>
       </c>
@@ -2518,14 +2628,15 @@
       <c r="C63" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D63" s="8">
-        <v>1</v>
-      </c>
-      <c r="E63" s="7" t="s">
+      <c r="D63" s="15">
+        <v>1.21</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>262</v>
       </c>
@@ -2535,14 +2646,15 @@
       <c r="C64" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D64" s="8">
-        <v>2.02</v>
-      </c>
-      <c r="E64" s="7" t="s">
+      <c r="D64" s="15">
+        <v>2.44</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="14"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>262</v>
       </c>
@@ -2552,14 +2664,15 @@
       <c r="C65" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D65" s="8">
-        <v>1.76</v>
-      </c>
-      <c r="E65" s="7" t="s">
+      <c r="D65" s="15">
+        <v>2.13</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="14"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>262</v>
       </c>
@@ -2569,14 +2682,15 @@
       <c r="C66" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D66" s="8">
-        <v>3.4</v>
-      </c>
-      <c r="E66" s="7" t="s">
+      <c r="D66" s="15">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>262</v>
       </c>
@@ -2586,26 +2700,28 @@
       <c r="C67" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D67" s="8">
-        <v>4.12</v>
-      </c>
-      <c r="E67" s="7" t="s">
+      <c r="D67" s="15">
+        <v>5.54</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="14"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C68" s="7"/>
-      <c r="D68" s="8">
+      <c r="D68" s="15">
         <v>0</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="12" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="14"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>262</v>
       </c>
@@ -2615,14 +2731,15 @@
       <c r="C69" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D69" s="8">
-        <v>3.4</v>
-      </c>
-      <c r="E69" s="7" t="s">
+      <c r="D69" s="15">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="14"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>262</v>
       </c>
@@ -2632,14 +2749,15 @@
       <c r="C70" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D70" s="8">
-        <v>3.38</v>
-      </c>
-      <c r="E70" s="7" t="s">
+      <c r="D70" s="15">
+        <v>1.21</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="14"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>262</v>
       </c>
@@ -2649,14 +2767,15 @@
       <c r="C71" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D71" s="8">
-        <v>3.18</v>
-      </c>
-      <c r="E71" s="7" t="s">
+      <c r="D71" s="15">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="14"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>262</v>
       </c>
@@ -2666,14 +2785,15 @@
       <c r="C72" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D72" s="8">
-        <v>3.1</v>
-      </c>
-      <c r="E72" s="7" t="s">
+      <c r="D72" s="15">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="E72" s="12" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="14"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>262</v>
       </c>
@@ -2683,14 +2803,15 @@
       <c r="C73" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="D73" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="E73" s="7" t="s">
+      <c r="D73" s="15">
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="E73" s="12" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="14"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>262</v>
       </c>
@@ -2700,14 +2821,15 @@
       <c r="C74" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D74" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E74" s="7" t="s">
+      <c r="D74" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="E74" s="12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="14"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>262</v>
       </c>
@@ -2717,14 +2839,15 @@
       <c r="C75" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D75" s="8">
-        <v>4.0200000000000005</v>
-      </c>
-      <c r="E75" s="7" t="s">
+      <c r="D75" s="15">
+        <v>2.73</v>
+      </c>
+      <c r="E75" s="12" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="14"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>262</v>
       </c>
@@ -2734,14 +2857,15 @@
       <c r="C76" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D76" s="8">
-        <v>2.02</v>
-      </c>
-      <c r="E76" s="7" t="s">
+      <c r="D76" s="15">
+        <v>2.71</v>
+      </c>
+      <c r="E76" s="12" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="14"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>262</v>
       </c>
@@ -2751,14 +2875,15 @@
       <c r="C77" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D77" s="8">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="E77" s="7" t="s">
+      <c r="D77" s="15">
+        <v>5.9</v>
+      </c>
+      <c r="E77" s="12" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="14"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>262</v>
       </c>
@@ -2768,14 +2893,15 @@
       <c r="C78" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D78" s="8">
-        <v>5.3500000000000005</v>
-      </c>
-      <c r="E78" s="7" t="s">
+      <c r="D78" s="15">
+        <v>7.7700000000000005</v>
+      </c>
+      <c r="E78" s="12" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="14"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>263</v>
       </c>
@@ -2785,14 +2911,15 @@
       <c r="C79" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D79" s="8">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E79" s="7" t="s">
+      <c r="D79" s="15">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E79" s="12" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="14"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>263</v>
       </c>
@@ -2802,14 +2929,15 @@
       <c r="C80" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D80" s="8">
-        <v>3.6</v>
-      </c>
-      <c r="E80" s="7" t="s">
+      <c r="D80" s="15">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="14"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>263</v>
       </c>
@@ -2819,14 +2947,15 @@
       <c r="C81" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D81" s="8">
-        <v>1.9100000000000001</v>
-      </c>
-      <c r="E81" s="7" t="s">
+      <c r="D81" s="15">
+        <v>2.57</v>
+      </c>
+      <c r="E81" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="14"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>263</v>
       </c>
@@ -2836,14 +2965,15 @@
       <c r="C82" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D82" s="8">
-        <v>2.16</v>
-      </c>
-      <c r="E82" s="7" t="s">
+      <c r="D82" s="15">
+        <v>2.9</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="14"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>263</v>
       </c>
@@ -2853,14 +2983,15 @@
       <c r="C83" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D83" s="8">
-        <v>2.56</v>
-      </c>
-      <c r="E83" s="7" t="s">
+      <c r="D83" s="15">
+        <v>3.44</v>
+      </c>
+      <c r="E83" s="12" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="14"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>263</v>
       </c>
@@ -2870,14 +3001,15 @@
       <c r="C84" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D84" s="8">
-        <v>5.36</v>
-      </c>
-      <c r="E84" s="7" t="s">
+      <c r="D84" s="15">
+        <v>3.44</v>
+      </c>
+      <c r="E84" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="14"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>263</v>
       </c>
@@ -2887,14 +3019,15 @@
       <c r="C85" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D85" s="8">
-        <v>4.25</v>
-      </c>
-      <c r="E85" s="7" t="s">
+      <c r="D85" s="15">
+        <v>6.17</v>
+      </c>
+      <c r="E85" s="12" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="14"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>263</v>
       </c>
@@ -2904,14 +3037,15 @@
       <c r="C86" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="D86" s="8">
-        <v>12.66</v>
-      </c>
-      <c r="E86" s="7" t="s">
+      <c r="D86" s="15">
+        <v>5.74</v>
+      </c>
+      <c r="E86" s="12" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="14"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>263</v>
       </c>
@@ -2921,26 +3055,28 @@
       <c r="C87" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D87" s="8">
-        <v>12.66</v>
-      </c>
-      <c r="E87" s="7" t="s">
+      <c r="D87" s="15">
+        <v>6</v>
+      </c>
+      <c r="E87" s="12" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="14"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C88" s="7"/>
-      <c r="D88" s="8">
+      <c r="D88" s="15">
         <v>0</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="12" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="14"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>325</v>
       </c>
@@ -2950,14 +3086,15 @@
       <c r="C89" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D89" s="8">
-        <v>0.84</v>
-      </c>
-      <c r="E89" s="7" t="s">
+      <c r="D89" s="15">
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="E89" s="12" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="14"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>325</v>
       </c>
@@ -2967,14 +3104,15 @@
       <c r="C90" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="8">
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="E90" s="7" t="s">
+      <c r="D90" s="15">
+        <v>2.52</v>
+      </c>
+      <c r="E90" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="14"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>325</v>
       </c>
@@ -2984,14 +3122,15 @@
       <c r="C91" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D91" s="8">
-        <v>0.87</v>
-      </c>
-      <c r="E91" s="7" t="s">
+      <c r="D91" s="15">
+        <v>1.26</v>
+      </c>
+      <c r="E91" s="12" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="14"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>325</v>
       </c>
@@ -3001,14 +3140,15 @@
       <c r="C92" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D92" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="E92" s="7" t="s">
+      <c r="D92" s="15">
+        <v>1.74</v>
+      </c>
+      <c r="E92" s="12" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="14"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>325</v>
       </c>
@@ -3018,14 +3158,15 @@
       <c r="C93" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D93" s="8">
-        <v>1.51</v>
-      </c>
-      <c r="E93" s="7" t="s">
+      <c r="D93" s="15">
+        <v>2.42</v>
+      </c>
+      <c r="E93" s="12" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="14"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>325</v>
       </c>
@@ -3035,14 +3176,15 @@
       <c r="C94" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D94" s="8">
-        <v>2.86</v>
-      </c>
-      <c r="E94" s="7" t="s">
+      <c r="D94" s="15">
+        <v>4.09</v>
+      </c>
+      <c r="E94" s="12" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="14"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>325</v>
       </c>
@@ -3052,14 +3194,15 @@
       <c r="C95" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D95" s="8">
-        <v>5.21</v>
-      </c>
-      <c r="E95" s="7" t="s">
+      <c r="D95" s="15">
+        <v>7.57</v>
+      </c>
+      <c r="E95" s="12" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="14"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>325</v>
       </c>
@@ -3069,12 +3212,13 @@
       <c r="C96" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D96" s="8">
-        <v>6.71</v>
-      </c>
-      <c r="E96" s="7" t="s">
+      <c r="D96" s="15">
+        <v>9.75</v>
+      </c>
+      <c r="E96" s="12" t="s">
         <v>186</v>
       </c>
+      <c r="F96" s="14"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
@@ -3086,12 +3230,13 @@
       <c r="C97" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D97" s="8">
-        <v>3.29</v>
-      </c>
-      <c r="E97" s="7" t="s">
+      <c r="D97" s="15">
+        <v>8.42</v>
+      </c>
+      <c r="E97" s="12" t="s">
         <v>188</v>
       </c>
+      <c r="F97" s="14"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
@@ -3103,12 +3248,13 @@
       <c r="C98" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D98" s="8">
-        <v>4.78</v>
-      </c>
-      <c r="E98" s="7" t="s">
+      <c r="D98" s="15">
+        <v>6.95</v>
+      </c>
+      <c r="E98" s="12" t="s">
         <v>190</v>
       </c>
+      <c r="F98" s="14"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
@@ -3120,12 +3266,13 @@
       <c r="C99" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D99" s="8">
-        <v>1.22</v>
-      </c>
-      <c r="E99" s="7" t="s">
+      <c r="D99" s="15">
+        <v>1.77</v>
+      </c>
+      <c r="E99" s="12" t="s">
         <v>192</v>
       </c>
+      <c r="F99" s="14"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
@@ -3137,12 +3284,13 @@
       <c r="C100" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D100" s="8">
-        <v>2.0300000000000002</v>
-      </c>
-      <c r="E100" s="7" t="s">
+      <c r="D100" s="15">
+        <v>2.73</v>
+      </c>
+      <c r="E100" s="12" t="s">
         <v>194</v>
       </c>
+      <c r="F100" s="14"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
@@ -3154,12 +3302,13 @@
       <c r="C101" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D101" s="8">
-        <v>2.65</v>
-      </c>
-      <c r="E101" s="7" t="s">
+      <c r="D101" s="15">
+        <v>3.56</v>
+      </c>
+      <c r="E101" s="12" t="s">
         <v>196</v>
       </c>
+      <c r="F101" s="14"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
@@ -3171,12 +3320,13 @@
       <c r="C102" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D102" s="8">
-        <v>5.47</v>
-      </c>
-      <c r="E102" s="7" t="s">
+      <c r="D102" s="15">
+        <v>7.36</v>
+      </c>
+      <c r="E102" s="12" t="s">
         <v>198</v>
       </c>
+      <c r="F102" s="14"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
@@ -3188,12 +3338,13 @@
       <c r="C103" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D103" s="8">
-        <v>11.59</v>
-      </c>
-      <c r="E103" s="7" t="s">
+      <c r="D103" s="15">
+        <v>15.58</v>
+      </c>
+      <c r="E103" s="12" t="s">
         <v>200</v>
       </c>
+      <c r="F103" s="14"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
@@ -3205,12 +3356,13 @@
       <c r="C104" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D104" s="8">
-        <v>14</v>
-      </c>
-      <c r="E104" s="7" t="s">
+      <c r="D104" s="15">
+        <v>18.830000000000002</v>
+      </c>
+      <c r="E104" s="12" t="s">
         <v>202</v>
       </c>
+      <c r="F104" s="14"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
@@ -3222,12 +3374,13 @@
       <c r="C105" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D105" s="8">
-        <v>1.22</v>
-      </c>
-      <c r="E105" s="7" t="s">
+      <c r="D105" s="15">
+        <v>1.77</v>
+      </c>
+      <c r="E105" s="12" t="s">
         <v>204</v>
       </c>
+      <c r="F105" s="14"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
@@ -3239,12 +3392,13 @@
       <c r="C106" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D106" s="8">
-        <v>1.57</v>
-      </c>
-      <c r="E106" s="7" t="s">
+      <c r="D106" s="15">
+        <v>2.11</v>
+      </c>
+      <c r="E106" s="12" t="s">
         <v>206</v>
       </c>
+      <c r="F106" s="14"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
@@ -3256,12 +3410,13 @@
       <c r="C107" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D107" s="8">
-        <v>2.92</v>
-      </c>
-      <c r="E107" s="7" t="s">
+      <c r="D107" s="15">
+        <v>3.92</v>
+      </c>
+      <c r="E107" s="12" t="s">
         <v>208</v>
       </c>
+      <c r="F107" s="14"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
@@ -3273,12 +3428,13 @@
       <c r="C108" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D108" s="8">
-        <v>4.5200000000000005</v>
-      </c>
-      <c r="E108" s="7" t="s">
+      <c r="D108" s="15">
+        <v>6.07</v>
+      </c>
+      <c r="E108" s="12" t="s">
         <v>210</v>
       </c>
+      <c r="F108" s="14"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
@@ -3290,12 +3446,13 @@
       <c r="C109" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D109" s="8">
-        <v>10.67</v>
-      </c>
-      <c r="E109" s="7" t="s">
+      <c r="D109" s="15">
+        <v>14.35</v>
+      </c>
+      <c r="E109" s="12" t="s">
         <v>212</v>
       </c>
+      <c r="F109" s="14"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
@@ -3307,12 +3464,13 @@
       <c r="C110" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D110" s="8">
-        <v>12.96</v>
-      </c>
-      <c r="E110" s="7" t="s">
+      <c r="D110" s="15">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="E110" s="12" t="s">
         <v>214</v>
       </c>
+      <c r="F110" s="17"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
@@ -3325,12 +3483,12 @@
         <v>303</v>
       </c>
       <c r="D111" s="8">
-        <v>5.15</v>
-      </c>
-      <c r="E111" s="7" t="s">
+        <v>6.23</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="F111" s="2"/>
+      <c r="F111" s="17"/>
       <c r="G111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="3"/>
@@ -3350,12 +3508,12 @@
         <v>304</v>
       </c>
       <c r="D112" s="8">
-        <v>6.2</v>
-      </c>
-      <c r="E112" s="7" t="s">
+        <v>7.5</v>
+      </c>
+      <c r="E112" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="F112" s="2"/>
+      <c r="F112" s="17"/>
       <c r="G112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="3"/>
@@ -3364,7 +3522,7 @@
       <c r="M112"/>
       <c r="N112"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>326</v>
       </c>
@@ -3375,13 +3533,14 @@
         <v>322</v>
       </c>
       <c r="D113" s="8">
-        <v>4.76</v>
-      </c>
-      <c r="E113" s="7" t="s">
+        <v>5.76</v>
+      </c>
+      <c r="E113" s="16" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="17"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>326</v>
       </c>
@@ -3392,13 +3551,14 @@
         <v>323</v>
       </c>
       <c r="D114" s="8">
-        <v>4.76</v>
-      </c>
-      <c r="E114" s="7" t="s">
+        <v>10.51</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" s="17"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>326</v>
       </c>
@@ -3409,13 +3569,14 @@
         <v>291</v>
       </c>
       <c r="D115" s="8">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="E115" s="7" t="s">
+        <v>10.25</v>
+      </c>
+      <c r="E115" s="16" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" s="17"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>326</v>
       </c>
@@ -3426,13 +3587,14 @@
         <v>302</v>
       </c>
       <c r="D116" s="8">
-        <v>5.79</v>
-      </c>
-      <c r="E116" s="7" t="s">
+        <v>7.01</v>
+      </c>
+      <c r="E116" s="16" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" s="17"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>326</v>
       </c>
@@ -3443,13 +3605,14 @@
         <v>271</v>
       </c>
       <c r="D117" s="8">
-        <v>12.88</v>
-      </c>
-      <c r="E117" s="7" t="s">
+        <v>15.58</v>
+      </c>
+      <c r="E117" s="16" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" s="17"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>265</v>
       </c>
@@ -3460,13 +3623,14 @@
         <v>292</v>
       </c>
       <c r="D118" s="8">
-        <v>1.33</v>
-      </c>
-      <c r="E118" s="7" t="s">
+        <v>1.61</v>
+      </c>
+      <c r="E118" s="18" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" s="19"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>265</v>
       </c>
@@ -3477,13 +3641,14 @@
         <v>293</v>
       </c>
       <c r="D119" s="8">
-        <v>1.94</v>
-      </c>
-      <c r="E119" s="7" t="s">
+        <v>2.35</v>
+      </c>
+      <c r="E119" s="18" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" s="19"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>265</v>
       </c>
@@ -3494,13 +3659,14 @@
         <v>294</v>
       </c>
       <c r="D120" s="8">
-        <v>2.57</v>
-      </c>
-      <c r="E120" s="7" t="s">
+        <v>3.11</v>
+      </c>
+      <c r="E120" s="18" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" s="19"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>265</v>
       </c>
@@ -3511,13 +3677,14 @@
         <v>295</v>
       </c>
       <c r="D121" s="8">
-        <v>4.32</v>
-      </c>
-      <c r="E121" s="7" t="s">
+        <v>5.23</v>
+      </c>
+      <c r="E121" s="18" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" s="19"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>265</v>
       </c>
@@ -3528,13 +3695,14 @@
         <v>296</v>
       </c>
       <c r="D122" s="8">
-        <v>7.2</v>
-      </c>
-      <c r="E122" s="7" t="s">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="E122" s="18" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" s="19"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>265</v>
       </c>
@@ -3545,13 +3713,14 @@
         <v>297</v>
       </c>
       <c r="D123" s="8">
-        <v>2</v>
-      </c>
-      <c r="E123" s="7" t="s">
+        <v>2.42</v>
+      </c>
+      <c r="E123" s="18" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" s="19"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>265</v>
       </c>
@@ -3562,13 +3731,14 @@
         <v>298</v>
       </c>
       <c r="D124" s="8">
-        <v>2.94</v>
-      </c>
-      <c r="E124" s="7" t="s">
+        <v>3.56</v>
+      </c>
+      <c r="E124" s="18" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" s="19"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>265</v>
       </c>
@@ -3579,13 +3749,14 @@
         <v>299</v>
       </c>
       <c r="D125" s="8">
-        <v>3</v>
-      </c>
-      <c r="E125" s="7" t="s">
+        <v>3.63</v>
+      </c>
+      <c r="E125" s="18" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" s="19"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>265</v>
       </c>
@@ -3596,13 +3767,14 @@
         <v>300</v>
       </c>
       <c r="D126" s="8">
-        <v>5.7</v>
-      </c>
-      <c r="E126" s="7" t="s">
+        <v>6.9</v>
+      </c>
+      <c r="E126" s="18" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" s="19"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>265</v>
       </c>
@@ -3613,11 +3785,39 @@
         <v>301</v>
       </c>
       <c r="D127" s="8">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="E127" s="7" t="s">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="E127" s="18" t="s">
         <v>248</v>
       </c>
+      <c r="F127" s="19"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F128" s="17"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F129" s="17"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F130" s="17"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F131" s="17"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F132" s="17"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F133" s="17"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F134" s="17"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F135" s="17"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F136" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prix/laiton.xlsx
+++ b/prix/laiton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1942089-1578-43F3-8A89-1D5C9C974069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333E3982-CF4F-4D6F-BBE5-05705DF625B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
+    <workbookView xWindow="4476" yWindow="1068" windowWidth="13236" windowHeight="9708" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="354">
   <si>
     <t>43107601</t>
   </si>
@@ -1020,6 +1020,84 @@
   </si>
   <si>
     <t>laiton/coude-union.png</t>
+  </si>
+  <si>
+    <t>43107547</t>
+  </si>
+  <si>
+    <t>43107548</t>
+  </si>
+  <si>
+    <t>43107549</t>
+  </si>
+  <si>
+    <t>43107550</t>
+  </si>
+  <si>
+    <t>43107551</t>
+  </si>
+  <si>
+    <t>43107552</t>
+  </si>
+  <si>
+    <t>431075522</t>
+  </si>
+  <si>
+    <t>431075524</t>
+  </si>
+  <si>
+    <t>43107553</t>
+  </si>
+  <si>
+    <t>43107554</t>
+  </si>
+  <si>
+    <t>Tetine eau 3/8f x15</t>
+  </si>
+  <si>
+    <t>Tetine eau 1/2Mx15</t>
+  </si>
+  <si>
+    <t>Tetine eau 1/2fx15</t>
+  </si>
+  <si>
+    <t>Tetine eau 3/4Mx20</t>
+  </si>
+  <si>
+    <t>Tetine eau 3/4Fx20</t>
+  </si>
+  <si>
+    <t>Tetine eau 4/4Mx25</t>
+  </si>
+  <si>
+    <t>Tetine eau 5/4Mx32</t>
+  </si>
+  <si>
+    <t>Tetine eau 6/4Mx38</t>
+  </si>
+  <si>
+    <t>Tetine eau 4/4Fx25</t>
+  </si>
+  <si>
+    <t>Tetine eau 5/4Fx32</t>
+  </si>
+  <si>
+    <t>3/8-15</t>
+  </si>
+  <si>
+    <t>4/4-25</t>
+  </si>
+  <si>
+    <t>5/4-32</t>
+  </si>
+  <si>
+    <t>6/4-38</t>
+  </si>
+  <si>
+    <t>laiton/tetine-femelle.png</t>
+  </si>
+  <si>
+    <t>laiton/tetine-male.png</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1124,26 +1202,14 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1479,9 +1545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16140EE4-62C9-4627-8E75-6BE0566E4DDE}">
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:A135"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1515,7 +1583,7 @@
       <c r="E1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1541,7 +1609,6 @@
       <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1559,7 +1626,6 @@
       <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -1577,7 +1643,6 @@
       <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -1595,7 +1660,6 @@
       <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -1613,7 +1677,6 @@
       <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -1631,7 +1694,6 @@
       <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1649,7 +1711,6 @@
       <c r="E8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1667,7 +1728,6 @@
       <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1685,7 +1745,6 @@
       <c r="E10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -1703,7 +1762,6 @@
       <c r="E11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -1721,7 +1779,6 @@
       <c r="E12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -1739,7 +1796,6 @@
       <c r="E13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1757,7 +1813,6 @@
       <c r="E14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -1775,7 +1830,6 @@
       <c r="E15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -1793,9 +1847,8 @@
       <c r="E16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>324</v>
       </c>
@@ -1811,9 +1864,8 @@
       <c r="E17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>255</v>
       </c>
@@ -1823,15 +1875,14 @@
       <c r="C18" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>7.2700000000000005</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>255</v>
       </c>
@@ -1841,15 +1892,14 @@
       <c r="C19" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <v>6.63</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>255</v>
       </c>
@@ -1859,15 +1909,14 @@
       <c r="C20" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>8.66</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>255</v>
       </c>
@@ -1877,15 +1926,14 @@
       <c r="C21" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>13.950000000000001</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>255</v>
       </c>
@@ -1895,15 +1943,14 @@
       <c r="C22" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <v>23.04</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>255</v>
       </c>
@@ -1913,15 +1960,14 @@
       <c r="C23" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <v>34.5</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>327</v>
       </c>
@@ -1931,15 +1977,14 @@
       <c r="C24" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="13">
         <v>5.15</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>327</v>
       </c>
@@ -1949,15 +1994,14 @@
       <c r="C25" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="13">
         <v>8.7799999999999994</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>327</v>
       </c>
@@ -1967,15 +2011,14 @@
       <c r="C26" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="13">
         <v>14.94</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>327</v>
       </c>
@@ -1985,15 +2028,14 @@
       <c r="C27" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="13">
         <v>27.09</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>327</v>
       </c>
@@ -2003,15 +2045,14 @@
       <c r="C28" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="13">
         <v>53.88</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>327</v>
       </c>
@@ -2021,15 +2062,14 @@
       <c r="C29" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="13">
         <v>53.88</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>257</v>
       </c>
@@ -2039,15 +2079,14 @@
       <c r="C30" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="13">
         <v>10.620000000000001</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>257</v>
       </c>
@@ -2057,15 +2096,14 @@
       <c r="C31" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="13">
         <v>16.13</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>258</v>
       </c>
@@ -2075,15 +2113,14 @@
       <c r="C32" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="13">
         <v>2.86</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>258</v>
       </c>
@@ -2093,15 +2130,14 @@
       <c r="C33" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="13">
         <v>2.04</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>258</v>
       </c>
@@ -2111,15 +2147,14 @@
       <c r="C34" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="13">
         <v>3.11</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>258</v>
       </c>
@@ -2129,15 +2164,14 @@
       <c r="C35" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="13">
         <v>4.03</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>258</v>
       </c>
@@ -2147,15 +2181,14 @@
       <c r="C36" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="13">
         <v>7.51</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>258</v>
       </c>
@@ -2165,15 +2198,14 @@
       <c r="C37" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="13">
         <v>15.52</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>258</v>
       </c>
@@ -2183,15 +2215,14 @@
       <c r="C38" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="13">
         <v>17.64</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>259</v>
       </c>
@@ -2201,15 +2232,14 @@
       <c r="C39" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="13">
         <v>10.1</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>259</v>
       </c>
@@ -2219,15 +2249,14 @@
       <c r="C40" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="13">
         <v>6.15</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>260</v>
       </c>
@@ -2237,15 +2266,14 @@
       <c r="C41" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="13">
         <v>0.91</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>260</v>
       </c>
@@ -2255,15 +2283,14 @@
       <c r="C42" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="13">
         <v>1.98</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>260</v>
       </c>
@@ -2273,15 +2300,14 @@
       <c r="C43" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="13">
         <v>1.06</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>260</v>
       </c>
@@ -2291,15 +2317,14 @@
       <c r="C44" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="13">
         <v>1.36</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="14"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>260</v>
       </c>
@@ -2309,15 +2334,14 @@
       <c r="C45" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="13">
         <v>1.57</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="14"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>260</v>
       </c>
@@ -2327,15 +2351,14 @@
       <c r="C46" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="13">
         <v>2.95</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="14"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>260</v>
       </c>
@@ -2345,15 +2368,14 @@
       <c r="C47" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="13">
         <v>6.49</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="14"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>260</v>
       </c>
@@ -2363,15 +2385,14 @@
       <c r="C48" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="13">
         <v>6.44</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="14"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>261</v>
       </c>
@@ -2381,15 +2402,14 @@
       <c r="C49" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="13">
         <v>1.1100000000000001</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="14"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>261</v>
       </c>
@@ -2399,15 +2419,14 @@
       <c r="C50" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="13">
         <v>1.62</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="14"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>261</v>
       </c>
@@ -2417,15 +2436,14 @@
       <c r="C51" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="13">
         <v>1.98</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F51" s="14"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>261</v>
       </c>
@@ -2435,15 +2453,14 @@
       <c r="C52" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="13">
         <v>1.84</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="14"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>261</v>
       </c>
@@ -2453,15 +2470,14 @@
       <c r="C53" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="13">
         <v>1.94</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F53" s="14"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>261</v>
       </c>
@@ -2471,15 +2487,14 @@
       <c r="C54" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="13">
         <v>2.57</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="14"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>261</v>
       </c>
@@ -2489,15 +2504,14 @@
       <c r="C55" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="13">
         <v>5.66</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F55" s="14"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>261</v>
       </c>
@@ -2507,15 +2521,14 @@
       <c r="C56" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="13">
         <v>7.0200000000000005</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>261</v>
       </c>
@@ -2525,28 +2538,26 @@
       <c r="C57" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="13">
         <v>5.45</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F57" s="14"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C58" s="7"/>
-      <c r="D58" s="15">
+      <c r="D58" s="13">
         <v>0</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F58" s="14"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>262</v>
       </c>
@@ -2556,15 +2567,14 @@
       <c r="C59" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="13">
         <v>0.65</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F59" s="14"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>262</v>
       </c>
@@ -2574,15 +2584,14 @@
       <c r="C60" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="13">
         <v>0.65</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>262</v>
       </c>
@@ -2592,15 +2601,14 @@
       <c r="C61" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="13">
         <v>0.63</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F61" s="14"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>262</v>
       </c>
@@ -2610,15 +2618,14 @@
       <c r="C62" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="13">
         <v>1.31</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>262</v>
       </c>
@@ -2628,15 +2635,14 @@
       <c r="C63" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="13">
         <v>1.21</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>262</v>
       </c>
@@ -2646,15 +2652,14 @@
       <c r="C64" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="13">
         <v>2.44</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>262</v>
       </c>
@@ -2664,15 +2669,14 @@
       <c r="C65" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="13">
         <v>2.13</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F65" s="14"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>262</v>
       </c>
@@ -2682,15 +2686,14 @@
       <c r="C66" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="13">
         <v>4.1100000000000003</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>262</v>
       </c>
@@ -2700,28 +2703,26 @@
       <c r="C67" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="13">
         <v>5.54</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C68" s="7"/>
-      <c r="D68" s="15">
+      <c r="D68" s="13">
         <v>0</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F68" s="14"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>262</v>
       </c>
@@ -2731,15 +2732,14 @@
       <c r="C69" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="13">
         <v>4.9400000000000004</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F69" s="14"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>262</v>
       </c>
@@ -2749,15 +2749,14 @@
       <c r="C70" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="13">
         <v>1.21</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>262</v>
       </c>
@@ -2767,15 +2766,14 @@
       <c r="C71" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="13">
         <v>1.0900000000000001</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F71" s="14"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>262</v>
       </c>
@@ -2785,15 +2783,14 @@
       <c r="C72" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="13">
         <v>1.6500000000000001</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F72" s="14"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>262</v>
       </c>
@@ -2803,15 +2800,14 @@
       <c r="C73" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="13">
         <v>1.1400000000000001</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F73" s="14"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>262</v>
       </c>
@@ -2821,15 +2817,14 @@
       <c r="C74" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="13">
         <v>1.6</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F74" s="14"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>262</v>
       </c>
@@ -2839,15 +2834,14 @@
       <c r="C75" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="13">
         <v>2.73</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F75" s="14"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>262</v>
       </c>
@@ -2857,15 +2851,14 @@
       <c r="C76" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="13">
         <v>2.71</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F76" s="14"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>262</v>
       </c>
@@ -2875,15 +2868,14 @@
       <c r="C77" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="13">
         <v>5.9</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F77" s="14"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>262</v>
       </c>
@@ -2893,15 +2885,14 @@
       <c r="C78" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="13">
         <v>7.7700000000000005</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F78" s="14"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>263</v>
       </c>
@@ -2911,15 +2902,14 @@
       <c r="C79" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="13">
         <v>1.0900000000000001</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F79" s="14"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>263</v>
       </c>
@@ -2929,15 +2919,14 @@
       <c r="C80" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D80" s="13">
         <v>1.1100000000000001</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F80" s="14"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>263</v>
       </c>
@@ -2947,15 +2936,14 @@
       <c r="C81" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="13">
         <v>2.57</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F81" s="14"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>263</v>
       </c>
@@ -2965,15 +2953,14 @@
       <c r="C82" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="13">
         <v>2.9</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F82" s="14"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>263</v>
       </c>
@@ -2983,15 +2970,14 @@
       <c r="C83" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="13">
         <v>3.44</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F83" s="14"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>263</v>
       </c>
@@ -3001,15 +2987,14 @@
       <c r="C84" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="13">
         <v>3.44</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F84" s="14"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>263</v>
       </c>
@@ -3019,15 +3004,14 @@
       <c r="C85" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="13">
         <v>6.17</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F85" s="14"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>263</v>
       </c>
@@ -3037,15 +3021,14 @@
       <c r="C86" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="13">
         <v>5.74</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="F86" s="14"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>263</v>
       </c>
@@ -3055,28 +3038,26 @@
       <c r="C87" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D87" s="13">
         <v>6</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F87" s="14"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C88" s="7"/>
-      <c r="D88" s="15">
+      <c r="D88" s="13">
         <v>0</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F88" s="14"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>325</v>
       </c>
@@ -3086,15 +3067,14 @@
       <c r="C89" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D89" s="13">
         <v>0.82000000000000006</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F89" s="14"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>325</v>
       </c>
@@ -3104,15 +3084,14 @@
       <c r="C90" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D90" s="13">
         <v>2.52</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F90" s="14"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>325</v>
       </c>
@@ -3122,15 +3101,14 @@
       <c r="C91" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D91" s="13">
         <v>1.26</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="F91" s="14"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>325</v>
       </c>
@@ -3140,15 +3118,14 @@
       <c r="C92" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D92" s="15">
+      <c r="D92" s="13">
         <v>1.74</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F92" s="14"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>325</v>
       </c>
@@ -3158,15 +3135,14 @@
       <c r="C93" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D93" s="15">
+      <c r="D93" s="13">
         <v>2.42</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="F93" s="14"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>325</v>
       </c>
@@ -3176,15 +3152,14 @@
       <c r="C94" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D94" s="15">
+      <c r="D94" s="13">
         <v>4.09</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="F94" s="14"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>325</v>
       </c>
@@ -3194,15 +3169,14 @@
       <c r="C95" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D95" s="15">
+      <c r="D95" s="13">
         <v>7.57</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F95" s="14"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>325</v>
       </c>
@@ -3212,13 +3186,12 @@
       <c r="C96" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D96" s="15">
+      <c r="D96" s="13">
         <v>9.75</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F96" s="14"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
@@ -3230,13 +3203,12 @@
       <c r="C97" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D97" s="15">
+      <c r="D97" s="13">
         <v>8.42</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="F97" s="14"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
@@ -3248,13 +3220,12 @@
       <c r="C98" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D98" s="15">
+      <c r="D98" s="13">
         <v>6.95</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="F98" s="14"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
@@ -3266,13 +3237,12 @@
       <c r="C99" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D99" s="15">
+      <c r="D99" s="13">
         <v>1.77</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="F99" s="14"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
@@ -3284,13 +3254,12 @@
       <c r="C100" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D100" s="15">
+      <c r="D100" s="13">
         <v>2.73</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="F100" s="14"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
@@ -3302,13 +3271,12 @@
       <c r="C101" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D101" s="15">
+      <c r="D101" s="13">
         <v>3.56</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F101" s="14"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
@@ -3320,13 +3288,12 @@
       <c r="C102" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D102" s="15">
+      <c r="D102" s="13">
         <v>7.36</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="F102" s="14"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
@@ -3338,13 +3305,12 @@
       <c r="C103" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D103" s="15">
+      <c r="D103" s="13">
         <v>15.58</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F103" s="14"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
@@ -3356,13 +3322,12 @@
       <c r="C104" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D104" s="15">
+      <c r="D104" s="13">
         <v>18.830000000000002</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F104" s="14"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
@@ -3374,13 +3339,12 @@
       <c r="C105" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D105" s="15">
+      <c r="D105" s="13">
         <v>1.77</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F105" s="14"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
@@ -3392,13 +3356,12 @@
       <c r="C106" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D106" s="15">
+      <c r="D106" s="13">
         <v>2.11</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="F106" s="14"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
@@ -3410,13 +3373,12 @@
       <c r="C107" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D107" s="15">
+      <c r="D107" s="13">
         <v>3.92</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F107" s="14"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
@@ -3428,13 +3390,12 @@
       <c r="C108" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D108" s="15">
+      <c r="D108" s="13">
         <v>6.07</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="F108" s="14"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
@@ -3446,13 +3407,12 @@
       <c r="C109" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D109" s="15">
+      <c r="D109" s="13">
         <v>14.35</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="F109" s="14"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
@@ -3464,13 +3424,12 @@
       <c r="C110" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D110" s="15">
+      <c r="D110" s="13">
         <v>17.420000000000002</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F110" s="17"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
@@ -3485,10 +3444,9 @@
       <c r="D111" s="8">
         <v>6.23</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="F111" s="17"/>
       <c r="G111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="3"/>
@@ -3510,10 +3468,9 @@
       <c r="D112" s="8">
         <v>7.5</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="F112" s="17"/>
       <c r="G112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="3"/>
@@ -3522,7 +3479,7 @@
       <c r="M112"/>
       <c r="N112"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>326</v>
       </c>
@@ -3535,12 +3492,11 @@
       <c r="D113" s="8">
         <v>5.76</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="F113" s="17"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>326</v>
       </c>
@@ -3553,12 +3509,11 @@
       <c r="D114" s="8">
         <v>10.51</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F114" s="17"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>326</v>
       </c>
@@ -3571,12 +3526,11 @@
       <c r="D115" s="8">
         <v>10.25</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="F115" s="17"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>326</v>
       </c>
@@ -3589,12 +3543,11 @@
       <c r="D116" s="8">
         <v>7.01</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="F116" s="17"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>326</v>
       </c>
@@ -3607,12 +3560,11 @@
       <c r="D117" s="8">
         <v>15.58</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F117" s="17"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>265</v>
       </c>
@@ -3625,12 +3577,11 @@
       <c r="D118" s="8">
         <v>1.61</v>
       </c>
-      <c r="E118" s="18" t="s">
+      <c r="E118" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="F118" s="19"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>265</v>
       </c>
@@ -3643,12 +3594,11 @@
       <c r="D119" s="8">
         <v>2.35</v>
       </c>
-      <c r="E119" s="18" t="s">
+      <c r="E119" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="F119" s="19"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>265</v>
       </c>
@@ -3661,12 +3611,11 @@
       <c r="D120" s="8">
         <v>3.11</v>
       </c>
-      <c r="E120" s="18" t="s">
+      <c r="E120" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="F120" s="19"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>265</v>
       </c>
@@ -3679,12 +3628,11 @@
       <c r="D121" s="8">
         <v>5.23</v>
       </c>
-      <c r="E121" s="18" t="s">
+      <c r="E121" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="F121" s="19"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>265</v>
       </c>
@@ -3697,12 +3645,11 @@
       <c r="D122" s="8">
         <v>8.7100000000000009</v>
       </c>
-      <c r="E122" s="18" t="s">
+      <c r="E122" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F122" s="19"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>265</v>
       </c>
@@ -3715,12 +3662,11 @@
       <c r="D123" s="8">
         <v>2.42</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E123" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F123" s="19"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>265</v>
       </c>
@@ -3733,12 +3679,11 @@
       <c r="D124" s="8">
         <v>3.56</v>
       </c>
-      <c r="E124" s="18" t="s">
+      <c r="E124" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F124" s="19"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>265</v>
       </c>
@@ -3751,12 +3696,11 @@
       <c r="D125" s="8">
         <v>3.63</v>
       </c>
-      <c r="E125" s="18" t="s">
+      <c r="E125" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="F125" s="19"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>265</v>
       </c>
@@ -3769,12 +3713,11 @@
       <c r="D126" s="8">
         <v>6.9</v>
       </c>
-      <c r="E126" s="18" t="s">
+      <c r="E126" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F126" s="19"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>265</v>
       </c>
@@ -3787,37 +3730,179 @@
       <c r="D127" s="8">
         <v>10.220000000000001</v>
       </c>
-      <c r="E127" s="18" t="s">
+      <c r="E127" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F127" s="19"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F128" s="17"/>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F129" s="17"/>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F130" s="17"/>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F131" s="17"/>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F132" s="17"/>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F133" s="17"/>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F134" s="17"/>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F135" s="17"/>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F136" s="17"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D128" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D129" s="8">
+        <v>2.5300000000000002</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D130" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D131" s="8">
+        <v>3.95</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D132" s="8">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D133" s="8">
+        <v>3.67</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D134" s="8">
+        <v>10.14</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D135" s="8">
+        <v>12.620000000000001</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D136" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D137" s="8">
+        <v>7.51</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>337</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
